--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1065C0-0E97-4A9E-92B9-2155B8D2A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B46D0-9E5B-417F-A59E-4724A4DF4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
       <b/>
       <sz val="20"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -160,6 +168,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -445,15 +459,15 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="7" customWidth="1"/>
-    <col min="5" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" style="7" customWidth="1"/>
+    <col min="6" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -529,7 +543,9 @@
       <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -555,7 +571,7 @@
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -581,8 +597,10 @@
       <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -607,7 +625,7 @@
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -633,7 +651,9 @@
       <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -659,7 +679,7 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -685,7 +705,9 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -711,7 +733,7 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -729,65 +751,81 @@
     <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -808,7 +846,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B46D0-9E5B-417F-A59E-4724A4DF4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8AD32-1E5E-4B69-8BAE-A9822FA4DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -170,10 +170,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,15 +465,15 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="7" customWidth="1"/>
-    <col min="6" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
+    <col min="7" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -546,7 +552,9 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -572,7 +580,9 @@
         <v>2</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -600,7 +610,9 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -626,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -654,7 +666,9 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -680,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -708,7 +722,9 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -734,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -752,6 +768,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -763,62 +780,73 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -826,7 +854,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -847,7 +875,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8AD32-1E5E-4B69-8BAE-A9822FA4DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F38697-15BB-47E6-95C6-F8A7478CF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -611,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -638,7 +641,9 @@
         <v>2</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -723,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -781,6 +786,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -793,6 +799,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F38697-15BB-47E6-95C6-F8A7478CF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4F55E-16F1-448D-B922-8090910B1AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,9 @@
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
-    <col min="7" max="18" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="7" customWidth="1"/>
+    <col min="9" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -505,7 +507,7 @@
         <v>44617</v>
       </c>
       <c r="G3" s="6">
-        <v>44594</v>
+        <v>44622</v>
       </c>
       <c r="H3" s="6">
         <v>44624</v>
@@ -559,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -587,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -617,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -645,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -675,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -701,7 +703,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -731,7 +733,9 @@
         <v>4</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -757,7 +761,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="12"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -774,12 +778,14 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -787,12 +793,14 @@
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -800,60 +808,70 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -863,7 +881,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -884,7 +902,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4F55E-16F1-448D-B922-8090910B1AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF84A00-8BEF-472D-9947-25850CC3FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,9 @@
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF84A00-8BEF-472D-9947-25850CC3FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953E5A5-6430-4AFD-8294-852B0CB9FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,9 @@
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -589,7 +591,9 @@
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -781,6 +785,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7953E5A5-6430-4AFD-8294-852B0CB9FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7580CE-ABAA-41E9-B82C-F97F218BA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,8 +477,8 @@
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="7" customWidth="1"/>
-    <col min="9" max="18" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="7" customWidth="1"/>
+    <col min="10" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -564,7 +564,7 @@
       <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -594,7 +594,9 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -626,7 +628,7 @@
       <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -654,7 +656,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -684,7 +686,9 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -710,7 +714,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -742,7 +746,9 @@
       <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -768,7 +774,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -785,7 +791,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -793,6 +799,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
       <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -801,6 +808,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="13"/>
       <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -808,6 +816,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -816,6 +825,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
       <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -823,6 +833,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -830,6 +841,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -837,6 +849,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -844,6 +857,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -851,6 +865,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -858,6 +873,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
@@ -865,6 +881,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
@@ -872,6 +889,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
@@ -879,6 +897,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -889,7 +908,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -910,7 +929,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7580CE-ABAA-41E9-B82C-F97F218BA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF08A2-82BC-4368-B9C8-80E39788478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,17 +468,18 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="7" customWidth="1"/>
-    <col min="10" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -565,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -597,7 +598,7 @@
       <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -629,7 +630,9 @@
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -657,7 +660,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -689,7 +692,7 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -715,7 +718,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -749,7 +752,9 @@
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -775,7 +780,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -792,6 +797,7 @@
       <c r="F12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -800,6 +806,7 @@
       <c r="F13" s="10"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -809,6 +816,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -817,6 +825,7 @@
       <c r="F15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -826,6 +835,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -834,6 +844,7 @@
       <c r="F17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -842,6 +853,7 @@
       <c r="F18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -850,6 +862,7 @@
       <c r="F19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -858,6 +871,7 @@
       <c r="F20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -866,6 +880,7 @@
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -874,6 +889,7 @@
       <c r="F22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
@@ -882,6 +898,7 @@
       <c r="F23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
@@ -890,6 +907,7 @@
       <c r="F24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
@@ -898,6 +916,7 @@
       <c r="F25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -909,7 +928,6 @@
       <c r="G26" s="3"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -930,7 +948,6 @@
       <c r="G27" s="3"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF08A2-82BC-4368-B9C8-80E39788478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF07DBD-8267-47B6-96E7-3EA557E5873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,9 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF07DBD-8267-47B6-96E7-3EA557E5873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619878C2-80BA-46C2-A0E4-FA414903BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,9 @@
         <v>2</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -598,7 +600,7 @@
       <c r="I5" s="4">
         <v>3</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -630,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="12">
         <v>3</v>
       </c>
       <c r="K6" s="1"/>
@@ -660,7 +662,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -692,7 +696,7 @@
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="12">
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
@@ -720,7 +724,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -754,7 +758,7 @@
       <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="12">
         <v>1</v>
       </c>
       <c r="K10" s="1"/>
@@ -782,7 +786,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619878C2-80BA-46C2-A0E4-FA414903BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15394BCD-AE1F-45E6-ABA7-3401AB62149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,18 +468,19 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A11" sqref="A11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
-    <col min="11" max="18" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="7" customWidth="1"/>
+    <col min="12" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -569,7 +570,9 @@
       <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -601,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="12"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -635,7 +638,7 @@
       <c r="J6" s="12">
         <v>3</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -665,7 +668,7 @@
       <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -699,7 +702,7 @@
       <c r="J8" s="12">
         <v>2</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -725,7 +728,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -761,7 +764,7 @@
       <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -787,7 +790,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -804,6 +807,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -813,6 +817,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -823,6 +828,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -832,6 +838,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -842,6 +849,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -851,6 +859,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -860,6 +869,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -869,6 +879,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -878,6 +889,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -887,6 +899,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -896,6 +909,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
@@ -905,6 +919,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
@@ -914,6 +929,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
@@ -923,6 +939,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -934,7 +951,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -954,7 +971,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15394BCD-AE1F-45E6-ABA7-3401AB62149E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AEF54-C654-4B76-9432-D83E32E1981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,19 +468,21 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="7" customWidth="1"/>
-    <col min="12" max="18" width="8.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="8" customWidth="1"/>
+    <col min="15" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
@@ -575,7 +577,9 @@
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -607,7 +611,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -641,7 +645,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -671,7 +677,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -705,7 +711,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -731,7 +737,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -767,7 +773,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -793,7 +801,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -808,6 +816,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -818,6 +827,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -829,6 +839,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
@@ -839,6 +850,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -850,6 +862,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -860,6 +873,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -870,6 +884,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -880,6 +895,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -890,6 +906,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -900,6 +917,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -910,6 +928,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
@@ -920,6 +939,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
@@ -930,6 +950,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
@@ -940,6 +961,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -954,7 +976,6 @@
       <c r="K26" s="8"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -974,7 +995,6 @@
       <c r="K27" s="8"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36AEF54-C654-4B76-9432-D83E32E1981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B420FCC-AD50-40AF-BE76-DB3FB36FB2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6765" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B420FCC-AD50-40AF-BE76-DB3FB36FB2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D692532A-81BD-484E-8F3D-151BE11697CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -468,30 +476,30 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="7" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="8" customWidth="1"/>
     <col min="15" max="18" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -547,7 +555,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -584,8 +592,12 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <f>SUM(C4:R4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -616,8 +628,12 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <f t="shared" ref="S5:S11" si="0">SUM(C5:R5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -652,8 +668,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -677,13 +697,19 @@
       <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -716,8 +742,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -742,8 +772,12 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -780,8 +814,12 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -806,8 +844,12 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -818,7 +860,7 @@
       <c r="K12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -829,7 +871,7 @@
       <c r="K13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -841,7 +883,7 @@
       <c r="K14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -852,7 +894,7 @@
       <c r="K15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>

--- a/Doc/Participacion.xlsx
+++ b/Doc/Participacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-FIIS-TPW-2022-1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D692532A-81BD-484E-8F3D-151BE11697CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64DF131-91E6-4416-AFF2-762CAA1935A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -594,7 +594,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="3">
         <f>SUM(C4:R4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
